--- a/src/main/resources/template/excel/export/ActivityGoodsReport.xlsx
+++ b/src/main/resources/template/excel/export/ActivityGoodsReport.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,9 +206,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -308,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,13 +338,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -639,28 +648,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="2" customWidth="1"/>
-    <col min="11" max="15" width="12.625" style="3" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="11.625" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11" max="15" width="12.6640625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -688,7 +697,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -805,7 +814,7 @@
       <c r="Q3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="S3" s="6" t="s">
